--- a/trend_results/Rivers/TutaenuiStreamatdsMartonSTP_cb7475328f.xlsx
+++ b/trend_results/Rivers/TutaenuiStreamatdsMartonSTP_cb7475328f.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.587517215582505</v>
+        <v>0.412482784417495</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.983897559980876</v>
+        <v>0.016102440019124</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.334815670738295</v>
+        <v>0.665184329261705</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.467309272589507</v>
+        <v>0.5326907274104929</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2721,6 +2721,1003 @@
         </is>
       </c>
       <c r="W25" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>15</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.387760378663044</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.91304347826087</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0.008633153905661601</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.0853528026476713</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0801292409743244</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.0941456260159394</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>As likely as not increasing</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>15</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3.92845851614748e-07</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0060975609756097</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.902439024390244</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0377725964723723</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0228538145045316</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0578489131736729</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8.053858522893879</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.915370491305291</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.74390243902439</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>693</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-14.1750567306499</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-35.0141961541349</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.79334716190277</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-2.04546273169551</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0115099861455757</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.792207792207792</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.318808847602669</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0039211262486893</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0205607466087325</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.2299301848662</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0104177442318621</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0584415584415584</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.74025974025974</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0030006846188954</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0008517962994462</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0051815443587451</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.11052687519929</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.320769077014843</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.038961038961039</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9155844155844159</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0139703917050691</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.0307972354415635</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0521785714285714</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.824211900004078</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.999074917534552</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.572327044025157</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0239835841313269</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.0109558836711392</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0362981366459628</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.314745198573844</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.104121421167275</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.969512195121951</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.059191076165214</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0140149843682857</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.135349204825198</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.1139670059005</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0545967100266971</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.926829268292683</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5.8075</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.10535749978726</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0008188144138952</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.234165833456652</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.8141627169567</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2.76030445965369e-06</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.957317073170732</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0522603208492785</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0292778125783694</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0802747252747253</v>
+      </c>
+      <c r="N35" t="n">
+        <v>7.03369055844933</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0360907725535764</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.951219512195122</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.315358281114952</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0390239997620935</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.594455151059579</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.45030942138898</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/TutaenuiStreamatdsMartonSTP_cb7475328f.xlsx
+++ b/trend_results/Rivers/TutaenuiStreamatdsMartonSTP_cb7475328f.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.412482784417495</v>
+        <v>0.791297282434572</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.565</v>
+        <v>9.705</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0668956043956042</v>
+        <v>0.173956577961512</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.397519843708661</v>
+        <v>-0.138720709801466</v>
       </c>
       <c r="M2" t="n">
-        <v>0.343119317591178</v>
+        <v>0.499115282377361</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.699379031841131</v>
+        <v>1.79244284349832</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.746491225748484</v>
+        <v>0.996810890729771</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.1165</v>
+        <v>0.9615</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0455899854862117</v>
+        <v>-0.153911902242494</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.127090290274249</v>
+        <v>-0.370726364335409</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0611586050584101</v>
+        <v>-0.0570044063764382</v>
       </c>
       <c r="N3" t="n">
-        <v>-4.08329471439424</v>
+        <v>-16.0074781323447</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.877146219701968</v>
+        <v>0.605793416981418</v>
       </c>
       <c r="G4" t="n">
         <v>0.0344827586206897</v>
       </c>
       <c r="H4" t="n">
-        <v>0.793103448275862</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="K4" t="n">
-        <v>-64.0789473684211</v>
+        <v>-16.6173794358508</v>
       </c>
       <c r="L4" t="n">
-        <v>-153.843528718959</v>
+        <v>-96.37936299842799</v>
       </c>
       <c r="M4" t="n">
-        <v>26.7972154160599</v>
+        <v>72.6384062315728</v>
       </c>
       <c r="N4" t="n">
-        <v>-11.6507177033493</v>
+        <v>-3.39130192568383</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,35 +842,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.6354827552305981</v>
+        <v>0.746771264376116</v>
       </c>
       <c r="G5" t="n">
-        <v>0.153846153846154</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="H5" t="n">
-        <v>0.865384615384615</v>
+        <v>0.8490566037735851</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.359876504061514</v>
+        <v>0.34952776131201</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0018107010193701</v>
+        <v>-0.0068353538522661</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0980724965470271</v>
+        <v>-0.0890943986192194</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0110901353463731</v>
+        <v>0.0192889535051036</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.50314510642813</v>
+        <v>-1.95559683917766</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.697089154723832</v>
+        <v>0.8949438362350171</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0172413793103448</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H6" t="n">
-        <v>0.913793103448276</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.078</v>
+        <v>0.073</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0049603721749948</v>
+        <v>-0.0074770656558631</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.01943466231261</v>
+        <v>-0.0211636388373104</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0051736459100844</v>
+        <v>0.0030103021978022</v>
       </c>
       <c r="N6" t="n">
-        <v>-6.35945150640361</v>
+        <v>-10.2425556929632</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.976730209576497</v>
+        <v>0.939205768256117</v>
       </c>
       <c r="G7" t="n">
         <v>0.0344827586206897</v>
@@ -1040,19 +1040,19 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.615</v>
+        <v>1.34</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.166743533082023</v>
+        <v>-0.131206523040992</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.346765274879187</v>
+        <v>-0.266456028050267</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.06697894174264719</v>
+        <v>-0.0020919874571055</v>
       </c>
       <c r="N7" t="n">
-        <v>-10.3246769710231</v>
+        <v>-9.79153157022326</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.016102440019124</v>
+        <v>0.011934196149598</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1131,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.68</v>
+        <v>7.67</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0516670168067226</v>
+        <v>-0.0567452249541404</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.100914919412564</v>
+        <v>-0.103670398095747</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0121710913521591</v>
+        <v>-0.0137679695136902</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.672747614670867</v>
+        <v>-0.739833441383838</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1206,31 +1206,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.967337279767713</v>
+        <v>0.998746768473747</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9655172413793101</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.736</v>
+        <v>2.475</v>
       </c>
       <c r="K9" t="n">
         <v>-0.318544922488226</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.558772950168385</v>
+        <v>-0.5165980633126011</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0257424515821666</v>
+        <v>-0.22751920247268</v>
       </c>
       <c r="N9" t="n">
-        <v>-11.6427237751545</v>
+        <v>-12.8705019187162</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>0.983737909367336</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0344827586206897</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.655172413793103</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>24.5</v>
+        <v>5.53</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.248469387755102</v>
+        <v>-0.45001087793608</v>
       </c>
       <c r="L10" t="n">
-        <v>-2.00686813186813</v>
+        <v>-1.15505047441181</v>
       </c>
       <c r="M10" t="n">
-        <v>2.06987562131944</v>
+        <v>-0.113534769737127</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.01416076634736</v>
+        <v>-8.137628895769989</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.643788875060667</v>
+        <v>0.983737909367336</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.931034482758621</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.37</v>
+        <v>1.24</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.124269425310546</v>
+        <v>-0.147670514054678</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.563410349075446</v>
+        <v>-0.396702718244822</v>
       </c>
       <c r="M11" t="n">
-        <v>0.334072132823645</v>
+        <v>-0.0291117650155532</v>
       </c>
       <c r="N11" t="n">
-        <v>-1.95085440047952</v>
+        <v>-11.9089124237644</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,7 +1479,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.791297282434572</v>
+        <v>0.831062575630752</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1491,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.705</v>
+        <v>9.6</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.06516569258766711</v>
+        <v>-0.388127936080092</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.15610880840979</v>
+        <v>-1.68224124920988</v>
       </c>
       <c r="M12" t="n">
-        <v>0.065624868164102</v>
+        <v>0.418508740423778</v>
       </c>
       <c r="N12" t="n">
-        <v>-3.8220347558749</v>
+        <v>-4.04299933416763</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1555,11 +1555,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.529383796942125</v>
+        <v>0.970794755591013</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9655172413793101</v>
+        <v>0.957264957264957</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.05</v>
+        <v>9.23</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0437622081865502</v>
+        <v>0.167135853167952</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.2179780274145</v>
+        <v>0.024333906941065</v>
       </c>
       <c r="M13" t="n">
-        <v>1.20284094120357</v>
+        <v>0.320685139853254</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.363171852170541</v>
+        <v>1.81078930842851</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.665184329261705</v>
+        <v>0.736959059536972</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.948717948717949</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>9.23</v>
+        <v>0.9385</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0432688953361608</v>
+        <v>-0.0133363760839799</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0928407954983294</v>
+        <v>-0.0423467452768559</v>
       </c>
       <c r="M14" t="n">
-        <v>0.207975522851936</v>
+        <v>0.0140804418428797</v>
       </c>
       <c r="N14" t="n">
-        <v>0.468785431594375</v>
+        <v>-1.42103101587426</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.395754914194128</v>
+        <v>0.931727889402806</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H15" t="n">
-        <v>0.932203389830508</v>
+        <v>0.754237288135593</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.085</v>
+        <v>625</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0049075999431602</v>
+        <v>-28.3180186647523</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0312440912950838</v>
+        <v>-62.4246725630241</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0297315102302811</v>
+        <v>1.64622468301861</v>
       </c>
       <c r="N15" t="n">
-        <v>0.452313358816617</v>
+        <v>-4.53088298636037</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1839,35 +1839,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.836466646625845</v>
+        <v>0.723656776788467</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0338983050847458</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="H16" t="n">
-        <v>0.73728813559322</v>
+        <v>0.827272727272727</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>620</v>
+        <v>0.41056993749777</v>
       </c>
       <c r="K16" t="n">
-        <v>-10.0343406593407</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-33.5223612515785</v>
+        <v>-0.0251749183757126</v>
       </c>
       <c r="M16" t="n">
-        <v>5.73919110114726</v>
+        <v>0.0018040583898608</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.61844204182914</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1930,35 +1930,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.558931495297332</v>
+        <v>0.985803497303502</v>
       </c>
       <c r="G17" t="n">
-        <v>0.181818181818182</v>
+        <v>0.0254237288135593</v>
       </c>
       <c r="H17" t="n">
-        <v>0.827272727272727</v>
+        <v>0.8389830508474579</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.435278988462619</v>
+        <v>0.0975</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.0057850464694879</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0189455092538482</v>
+        <v>-0.0116538435183205</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0038470062558069</v>
+        <v>-0.0014160636783716</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-5.93338099434663</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8357335689934829</v>
+        <v>0.99967105597369</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0169491525423729</v>
+        <v>0.0254237288135593</v>
       </c>
       <c r="H18" t="n">
-        <v>0.847457627118644</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1145</v>
+        <v>1.685</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0034952153110047</v>
+        <v>-0.0914656993723978</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.009584773078263701</v>
+        <v>-0.142331433120011</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0017476076555023</v>
+        <v>-0.0563317999345617</v>
       </c>
       <c r="N18" t="n">
-        <v>-3.05258979127056</v>
+        <v>-5.42823141675952</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.991871011095296</v>
+        <v>0.801873992863768</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0254237288135593</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.932203389830508</v>
+        <v>0.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.8499</v>
+        <v>7.67</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.079730186533212</v>
+        <v>0.0058567496935637</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.120025619651737</v>
+        <v>-0.0066614722957349</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0291854534966024</v>
+        <v>0.0199777765126848</v>
       </c>
       <c r="N19" t="n">
-        <v>-4.3099727841079</v>
+        <v>0.0763591876605438</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2178,11 +2178,7 @@
           <t>Rang_4d</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2192,7 +2188,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2203,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.5326907274104929</v>
+        <v>0.999729277352481</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.626086956521739</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>7.67</v>
+        <v>2.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0006226559836344</v>
+        <v>-0.208398740410533</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0150324290924658</v>
+        <v>-0.373642816151495</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0150070678497729</v>
+        <v>-0.110921688027845</v>
       </c>
       <c r="N20" t="n">
-        <v>0.008118070190801701</v>
+        <v>-7.44281215751903</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2236,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2269,7 +2265,11 @@
           <t>Rang_4d</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,31 +2294,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.961577663421331</v>
+        <v>0.997220978335134</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.974576271186441</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.0395</v>
+        <v>6.0365</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.110764310348128</v>
+        <v>-0.293741014133998</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.321050783093683</v>
+        <v>-0.526065133871918</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.0091655446257526</v>
+        <v>-0.118689278788505</v>
       </c>
       <c r="N21" t="n">
-        <v>-3.64416220918337</v>
+        <v>-4.86608157266624</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2381,35 +2381,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.531734403253355</v>
+        <v>0.728197267985387</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.525423728813559</v>
+        <v>0.957627118644068</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.5</v>
+        <v>1.34</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-0.0150879070777247</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.664494629447641</v>
+        <v>-0.0571091510654484</v>
       </c>
       <c r="M22" t="n">
-        <v>0.799420858826465</v>
+        <v>0.0139372347608956</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.12596321475558</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.940387620531849</v>
+        <v>0.107275692963324</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.940677966101695</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>6.84</v>
+        <v>9.31</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.235050701686848</v>
+        <v>0.266642579513303</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.532222232393466</v>
+        <v>-0.0581610214594526</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0026737348915785</v>
+        <v>0.676818137111698</v>
       </c>
       <c r="N23" t="n">
-        <v>-3.43641376735158</v>
+        <v>2.86404489273151</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.395826007997979</v>
+        <v>0.663828184327681</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.957627118644068</v>
+        <v>0.913294797687861</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.4555</v>
+        <v>9.32</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0029537050122479</v>
+        <v>0.0224692412850307</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0298084203645213</v>
+        <v>-0.0450363491188887</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0401948129828592</v>
+        <v>0.109895951637052</v>
       </c>
       <c r="N24" t="n">
-        <v>0.202934044125591</v>
+        <v>0.241086279882304</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2643,11 +2643,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.221893428049305</v>
+        <v>8.273356853385019e-06</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H25" t="n">
-        <v>0.957627118644068</v>
+        <v>0.9034090909090911</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>9.615</v>
+        <v>0.518</v>
       </c>
       <c r="K25" t="n">
-        <v>0.206553886687085</v>
+        <v>0.0261252213695396</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.207453781681578</v>
+        <v>0.0156980463462889</v>
       </c>
       <c r="M25" t="n">
-        <v>0.603166268920507</v>
+        <v>0.0410988700584324</v>
       </c>
       <c r="N25" t="n">
-        <v>2.14824635139974</v>
+        <v>5.04347902886864</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.387760378663044</v>
+        <v>0.96851857182023</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="H26" t="n">
-        <v>0.91304347826087</v>
+        <v>0.75</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>9.17</v>
+        <v>679.5</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.008633153905661601</v>
+        <v>-16.4678871806943</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0853528026476713</v>
+        <v>-35.8325057633537</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0801292409743244</v>
+        <v>-1.524313033511</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.0941456260159394</v>
+        <v>-2.42353012225081</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2836,35 +2836,35 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.92845851614748e-07</v>
+        <v>0.0315273589949336</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0060975609756097</v>
+        <v>0.210843373493976</v>
       </c>
       <c r="H27" t="n">
-        <v>0.902439024390244</v>
+        <v>0.795180722891566</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>0.469</v>
+        <v>0.331645313958933</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0377725964723723</v>
+        <v>0.0019751857584925</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0228538145045316</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0578489131736729</v>
+        <v>0.0129621904221643</v>
       </c>
       <c r="N27" t="n">
-        <v>8.053858522893879</v>
+        <v>0.595571737442695</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.915370491305291</v>
+        <v>0.0301134297494618</v>
       </c>
       <c r="G28" t="n">
-        <v>0.024390243902439</v>
+        <v>0.0602409638554217</v>
       </c>
       <c r="H28" t="n">
-        <v>0.74390243902439</v>
+        <v>0.72289156626506</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>693</v>
+        <v>0.073</v>
       </c>
       <c r="K28" t="n">
-        <v>-14.1750567306499</v>
+        <v>0.0021706285714285</v>
       </c>
       <c r="L28" t="n">
-        <v>-35.0141961541349</v>
+        <v>0.0003096763097549</v>
       </c>
       <c r="M28" t="n">
-        <v>1.79334716190277</v>
+        <v>0.0038883468152079</v>
       </c>
       <c r="N28" t="n">
-        <v>-2.04546273169551</v>
+        <v>2.97346379647749</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3018,35 +3018,35 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.0115099861455757</v>
+        <v>0.6676457599793439</v>
       </c>
       <c r="G29" t="n">
-        <v>0.214285714285714</v>
+        <v>0.036144578313253</v>
       </c>
       <c r="H29" t="n">
-        <v>0.792207792207792</v>
+        <v>0.909638554216867</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>0.318808847602669</v>
+        <v>1.675</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0039211262486893</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-0.0410154917744429</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0205607466087325</v>
+        <v>0.0228242548526407</v>
       </c>
       <c r="N29" t="n">
-        <v>1.2299301848662</v>
+        <v>-0.599065113990487</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0104177442318621</v>
+        <v>0.999035352353998</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0584415584415584</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.74025974025974</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.073</v>
+        <v>7.62</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0030006846188954</v>
+        <v>0.0214065934065934</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0008517962994462</v>
+        <v>0.0099366446101755</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0051815443587451</v>
+        <v>0.0333273040177238</v>
       </c>
       <c r="N30" t="n">
-        <v>4.11052687519929</v>
+        <v>0.280926422658706</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,11 +3175,7 @@
           <t>Rang_4d</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3189,7 +3185,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,31 +3200,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.320769077014843</v>
+        <v>0.435588885069195</v>
       </c>
       <c r="G31" t="n">
-        <v>0.038961038961039</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9155844155844159</v>
+        <v>0.9715909090909089</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.695</v>
+        <v>2.7175</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0139703917050691</v>
+        <v>0.0065006382039555</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0307972354415635</v>
+        <v>-0.0609616162836379</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0521785714285714</v>
+        <v>0.0667150256115579</v>
       </c>
       <c r="N31" t="n">
-        <v>0.824211900004078</v>
+        <v>0.239213917348869</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3233,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3264,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3276,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,31 +3291,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.999074917534552</v>
+        <v>0.267881180616818</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.572327044025157</v>
+        <v>0.926136363636364</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>7.62</v>
+        <v>5.6855</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0239835841313269</v>
+        <v>0.0349479556214308</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0109558836711392</v>
+        <v>-0.0581348695244319</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0362981366459628</v>
+        <v>0.123095429540053</v>
       </c>
       <c r="N32" t="n">
-        <v>0.314745198573844</v>
+        <v>0.614685702601895</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3324,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3357,7 +3353,11 @@
           <t>Rang_4d</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,31 +3382,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.104121421167275</v>
+        <v>8.02039084566273e-05</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.969512195121951</v>
+        <v>0.948863636363636</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.8</v>
+        <v>0.7685</v>
       </c>
       <c r="K33" t="n">
-        <v>0.059191076165214</v>
+        <v>0.0341873885761201</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0140149843682857</v>
+        <v>0.0182249172545676</v>
       </c>
       <c r="M33" t="n">
-        <v>0.135349204825198</v>
+        <v>0.0574667520965766</v>
       </c>
       <c r="N33" t="n">
-        <v>2.1139670059005</v>
+        <v>4.44858667223424</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0545967100266971</v>
+        <v>0.0590465150219704</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.926829268292683</v>
+        <v>0.948863636363636</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>5.8075</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>0.10535749978726</v>
+        <v>0.216767487320372</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0008188144138952</v>
+        <v>-0.0173229682442025</v>
       </c>
       <c r="M34" t="n">
-        <v>0.234165833456652</v>
+        <v>0.469126653969178</v>
       </c>
       <c r="N34" t="n">
-        <v>1.8141627169567</v>
+        <v>2.37163552866928</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3536,188 +3536,6 @@
         </is>
       </c>
       <c r="W34" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Tutaenui Stream at d/s Marton STP</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>15</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2.76030445965369e-06</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.957317073170732</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.0522603208492785</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.0292778125783694</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.0802747252747253</v>
-      </c>
-      <c r="N35" t="n">
-        <v>7.03369055844933</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Exceptionally unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>1803578.705</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5557699.998</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Rang_4d</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Tutaenui Stream at d/s Marton STP</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>15</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0.0360907725535764</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.951219512195122</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.315358281114952</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.0390239997620935</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.594455151059579</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3.45030942138898</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Extremely unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>1803578.705</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5557699.998</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Rang_4d</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/TutaenuiStreamatdsMartonSTP_cb7475328f.xlsx
+++ b/trend_results/Rivers/TutaenuiStreamatdsMartonSTP_cb7475328f.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="58">
   <si>
     <t>site name</t>
   </si>
@@ -124,55 +124,46 @@
     <t>ok</t>
   </si>
   <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
     <t>Impact</t>
   </si>
   <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
     <t>Likely increasing</t>
   </si>
   <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
-  </si>
-  <si>
     <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -648,38 +639,38 @@
         <v>35</v>
       </c>
       <c r="F2">
-        <v>0.791297282434572</v>
+        <v>0.379845096558685</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.982758620689655</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.705</v>
+        <v>9.34</v>
       </c>
       <c r="K2">
-        <v>0.173956577961512</v>
+        <v>-0.0301030219780213</v>
       </c>
       <c r="L2">
-        <v>-0.138720709801466</v>
+        <v>-0.355000412470189</v>
       </c>
       <c r="M2">
-        <v>0.499115282377361</v>
+        <v>0.210491851621912</v>
       </c>
       <c r="N2">
-        <v>1.79244284349832</v>
+        <v>-0.322302162505582</v>
       </c>
       <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
       <c r="Q2">
         <v>1803578.705</v>
       </c>
@@ -687,19 +678,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" t="s">
         <v>54</v>
-      </c>
-      <c r="U2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -719,13 +710,13 @@
         <v>35</v>
       </c>
       <c r="F3">
-        <v>0.996810890729771</v>
+        <v>0.746491225748484</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.982758620689655</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -734,22 +725,22 @@
         <v>0.9615</v>
       </c>
       <c r="K3">
-        <v>-0.153911902242494</v>
+        <v>-0.0243844863983752</v>
       </c>
       <c r="L3">
-        <v>-0.370726364335409</v>
+        <v>-0.086282161374199</v>
       </c>
       <c r="M3">
-        <v>-0.0570044063764382</v>
+        <v>0.0406527442379946</v>
       </c>
       <c r="N3">
-        <v>-16.0074781323447</v>
+        <v>-2.53608802895218</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q3">
         <v>1803578.705</v>
@@ -758,19 +749,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" t="s">
         <v>55</v>
-      </c>
-      <c r="V3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -790,37 +781,37 @@
         <v>35</v>
       </c>
       <c r="F4">
-        <v>0.605793416981418</v>
+        <v>0.428133614158088</v>
       </c>
       <c r="G4">
         <v>0.0344827586206897</v>
       </c>
       <c r="H4">
-        <v>0.879310344827586</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4">
-        <v>490</v>
+        <v>453.8</v>
       </c>
       <c r="K4">
-        <v>-16.6173794358508</v>
+        <v>10.4357142857143</v>
       </c>
       <c r="L4">
-        <v>-96.37936299842799</v>
+        <v>-73.0594373987085</v>
       </c>
       <c r="M4">
-        <v>72.6384062315728</v>
+        <v>87.5794907942729</v>
       </c>
       <c r="N4">
-        <v>-3.39130192568383</v>
+        <v>2.29962853365233</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q4">
         <v>1803578.705</v>
@@ -829,19 +820,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V4" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" t="s">
         <v>56</v>
-      </c>
-      <c r="W4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -858,40 +849,40 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>0.746771264376116</v>
+        <v>0.397755692611184</v>
       </c>
       <c r="G5">
-        <v>0.169811320754717</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.8490566037735851</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.34952776131201</v>
+        <v>0.377393847152148</v>
       </c>
       <c r="K5">
-        <v>-0.0068353538522661</v>
+        <v>0.0065729516437627</v>
       </c>
       <c r="L5">
-        <v>-0.0890943986192194</v>
+        <v>-0.0216826662044858</v>
       </c>
       <c r="M5">
-        <v>0.0192889535051036</v>
+        <v>0.148931198800256</v>
       </c>
       <c r="N5">
-        <v>-1.95559683917766</v>
+        <v>1.74166900000169</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q5">
         <v>1803578.705</v>
@@ -900,19 +891,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" t="s">
         <v>55</v>
-      </c>
-      <c r="V5" t="s">
-        <v>56</v>
-      </c>
-      <c r="W5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -935,34 +926,34 @@
         <v>0.8949438362350171</v>
       </c>
       <c r="G6">
-        <v>0.0344827586206897</v>
+        <v>0.0517241379310345</v>
       </c>
       <c r="H6">
-        <v>0.896551724137931</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.073</v>
+        <v>0.061</v>
       </c>
       <c r="K6">
-        <v>-0.0074770656558631</v>
+        <v>-0.0058245737628806</v>
       </c>
       <c r="L6">
-        <v>-0.0211636388373104</v>
+        <v>-0.0175754119866735</v>
       </c>
       <c r="M6">
-        <v>0.0030103021978022</v>
+        <v>0.0008373474574431</v>
       </c>
       <c r="N6">
-        <v>-10.2425556929632</v>
+        <v>-9.54848157849281</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q6">
         <v>1803578.705</v>
@@ -971,19 +962,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U6" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" t="s">
+        <v>53</v>
+      </c>
+      <c r="W6" t="s">
         <v>55</v>
-      </c>
-      <c r="V6" t="s">
-        <v>56</v>
-      </c>
-      <c r="W6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1003,37 +994,37 @@
         <v>35</v>
       </c>
       <c r="F7">
-        <v>0.939205768256117</v>
+        <v>0.529383796942125</v>
       </c>
       <c r="G7">
         <v>0.0344827586206897</v>
       </c>
       <c r="H7">
-        <v>0.931034482758621</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="K7">
-        <v>-0.131206523040992</v>
+        <v>-0.0172117703156716</v>
       </c>
       <c r="L7">
-        <v>-0.266456028050267</v>
+        <v>-0.221061811162042</v>
       </c>
       <c r="M7">
-        <v>-0.0020919874571055</v>
+        <v>0.0717028130644862</v>
       </c>
       <c r="N7">
-        <v>-9.79153157022326</v>
+        <v>-1.33424576090478</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q7">
         <v>1803578.705</v>
@@ -1042,19 +1033,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" t="s">
         <v>55</v>
-      </c>
-      <c r="V7" t="s">
-        <v>56</v>
-      </c>
-      <c r="W7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1074,37 +1065,37 @@
         <v>35</v>
       </c>
       <c r="F8">
-        <v>0.011934196149598</v>
+        <v>0.06390462321082099</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.719298245614035</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.67</v>
+        <v>7.655</v>
       </c>
       <c r="K8">
-        <v>-0.0567452249541404</v>
+        <v>-0.0331771263418661</v>
       </c>
       <c r="L8">
-        <v>-0.103670398095747</v>
+        <v>-0.08160483760027321</v>
       </c>
       <c r="M8">
-        <v>-0.0137679695136902</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>-0.739833441383838</v>
+        <v>-0.433404655021111</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q8">
         <v>1803578.705</v>
@@ -1113,16 +1104,16 @@
         <v>5557699.998</v>
       </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1142,37 +1133,37 @@
         <v>35</v>
       </c>
       <c r="F9">
-        <v>0.998746768473747</v>
+        <v>0.697089154723832</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.982758620689655</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2.475</v>
+        <v>2.6275</v>
       </c>
       <c r="K9">
-        <v>-0.318544922488226</v>
+        <v>-0.06547407280219771</v>
       </c>
       <c r="L9">
-        <v>-0.5165980633126011</v>
+        <v>-0.374451039380578</v>
       </c>
       <c r="M9">
-        <v>-0.22751920247268</v>
+        <v>0.207539596847558</v>
       </c>
       <c r="N9">
-        <v>-12.8705019187162</v>
+        <v>-2.49187717610648</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q9">
         <v>1803578.705</v>
@@ -1181,19 +1172,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T9" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" t="s">
+        <v>52</v>
+      </c>
+      <c r="V9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9" t="s">
         <v>54</v>
-      </c>
-      <c r="U9" t="s">
-        <v>55</v>
-      </c>
-      <c r="V9" t="s">
-        <v>56</v>
-      </c>
-      <c r="W9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1213,37 +1204,37 @@
         <v>35</v>
       </c>
       <c r="F10">
-        <v>0.983737909367336</v>
+        <v>0.529383796942125</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.948275862068966</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.53</v>
+        <v>5.475</v>
       </c>
       <c r="K10">
-        <v>-0.45001087793608</v>
+        <v>-0.07149467719780229</v>
       </c>
       <c r="L10">
-        <v>-1.15505047441181</v>
+        <v>-0.607306367943124</v>
       </c>
       <c r="M10">
-        <v>-0.113534769737127</v>
+        <v>0.308547682144375</v>
       </c>
       <c r="N10">
-        <v>-8.137628895769989</v>
+        <v>-1.3058388529279</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q10">
         <v>1803578.705</v>
@@ -1252,19 +1243,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T10" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W10" t="s">
         <v>54</v>
-      </c>
-      <c r="U10" t="s">
-        <v>55</v>
-      </c>
-      <c r="V10" t="s">
-        <v>56</v>
-      </c>
-      <c r="W10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1284,13 +1275,13 @@
         <v>35</v>
       </c>
       <c r="F11">
-        <v>0.983737909367336</v>
+        <v>0.746491225748484</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.982758620689655</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1299,22 +1290,22 @@
         <v>1.24</v>
       </c>
       <c r="K11">
-        <v>-0.147670514054678</v>
+        <v>-0.0347941004270561</v>
       </c>
       <c r="L11">
-        <v>-0.396702718244822</v>
+        <v>-0.0861001878810974</v>
       </c>
       <c r="M11">
-        <v>-0.0291117650155532</v>
+        <v>0.0386323973105962</v>
       </c>
       <c r="N11">
-        <v>-11.9089124237644</v>
+        <v>-2.80597584089162</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q11">
         <v>1803578.705</v>
@@ -1323,19 +1314,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" t="s">
+        <v>53</v>
+      </c>
+      <c r="W11" t="s">
         <v>54</v>
-      </c>
-      <c r="U11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V11" t="s">
-        <v>56</v>
-      </c>
-      <c r="W11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1355,37 +1346,37 @@
         <v>35</v>
       </c>
       <c r="F12">
-        <v>0.831062575630752</v>
+        <v>0.529383796942125</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.982758620689655</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.6</v>
+        <v>10.18</v>
       </c>
       <c r="K12">
-        <v>-0.388127936080092</v>
+        <v>-0.0300071524812767</v>
       </c>
       <c r="L12">
-        <v>-1.68224124920988</v>
+        <v>-0.844049294767678</v>
       </c>
       <c r="M12">
-        <v>0.418508740423778</v>
+        <v>1.36200029304687</v>
       </c>
       <c r="N12">
-        <v>-4.04299933416763</v>
+        <v>-0.294765741466372</v>
       </c>
       <c r="O12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q12">
         <v>1803578.705</v>
@@ -1394,19 +1385,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="W12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1426,38 +1417,38 @@
         <v>35</v>
       </c>
       <c r="F13">
-        <v>0.970794755591013</v>
+        <v>0.467502662289146</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.957264957264957</v>
+        <v>0.939130434782609</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.23</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="K13">
-        <v>0.167135853167952</v>
+        <v>-0.0102208265297219</v>
       </c>
       <c r="L13">
-        <v>0.024333906941065</v>
+        <v>-0.137270369850553</v>
       </c>
       <c r="M13">
-        <v>0.320685139853254</v>
+        <v>0.127015020164986</v>
       </c>
       <c r="N13">
-        <v>1.81078930842851</v>
+        <v>-0.107928474442681</v>
       </c>
       <c r="O13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" t="s">
         <v>38</v>
       </c>
-      <c r="P13" t="s">
-        <v>46</v>
-      </c>
       <c r="Q13">
         <v>1803578.705</v>
       </c>
@@ -1465,19 +1456,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" t="s">
+        <v>52</v>
+      </c>
+      <c r="V13" t="s">
+        <v>53</v>
+      </c>
+      <c r="W13" t="s">
         <v>54</v>
-      </c>
-      <c r="U13" t="s">
-        <v>55</v>
-      </c>
-      <c r="V13" t="s">
-        <v>56</v>
-      </c>
-      <c r="W13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1497,37 +1488,37 @@
         <v>35</v>
       </c>
       <c r="F14">
-        <v>0.736959059536972</v>
+        <v>0.521067594927293</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.949152542372881</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.9385</v>
+        <v>1.045</v>
       </c>
       <c r="K14">
-        <v>-0.0133363760839799</v>
+        <v>-0.0012482911825017</v>
       </c>
       <c r="L14">
-        <v>-0.0423467452768559</v>
+        <v>-0.0253782066682355</v>
       </c>
       <c r="M14">
-        <v>0.0140804418428797</v>
+        <v>0.0261058824807625</v>
       </c>
       <c r="N14">
-        <v>-1.42103101587426</v>
+        <v>-0.119453701674803</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q14">
         <v>1803578.705</v>
@@ -1536,19 +1527,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U14" t="s">
+        <v>52</v>
+      </c>
+      <c r="V14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W14" t="s">
         <v>55</v>
-      </c>
-      <c r="V14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1568,37 +1559,37 @@
         <v>35</v>
       </c>
       <c r="F15">
-        <v>0.931727889402806</v>
+        <v>0.974924337336159</v>
       </c>
       <c r="G15">
         <v>0.0338983050847458</v>
       </c>
       <c r="H15">
-        <v>0.754237288135593</v>
+        <v>0.771186440677966</v>
       </c>
       <c r="I15">
         <v>3</v>
       </c>
       <c r="J15">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="K15">
-        <v>-28.3180186647523</v>
+        <v>-35.7222527472527</v>
       </c>
       <c r="L15">
-        <v>-62.4246725630241</v>
+        <v>-72.6894672403921</v>
       </c>
       <c r="M15">
-        <v>1.64622468301861</v>
+        <v>-5.3788377039121</v>
       </c>
       <c r="N15">
-        <v>-4.53088298636037</v>
+        <v>-5.76165366891173</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q15">
         <v>1803578.705</v>
@@ -1607,19 +1598,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V15" t="s">
+        <v>53</v>
+      </c>
+      <c r="W15" t="s">
         <v>56</v>
-      </c>
-      <c r="W15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1636,16 +1627,16 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>0.723656776788467</v>
+        <v>0.475847546538544</v>
       </c>
       <c r="G16">
-        <v>0.181818181818182</v>
+        <v>0.157407407407407</v>
       </c>
       <c r="H16">
-        <v>0.827272727272727</v>
+        <v>0.851851851851852</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1657,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0251749183757126</v>
+        <v>-0.0087409497348367</v>
       </c>
       <c r="M16">
-        <v>0.0018040583898608</v>
+        <v>0.0067245568102217</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q16">
         <v>1803578.705</v>
@@ -1678,19 +1669,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V16" t="s">
+        <v>53</v>
+      </c>
+      <c r="W16" t="s">
         <v>55</v>
-      </c>
-      <c r="V16" t="s">
-        <v>56</v>
-      </c>
-      <c r="W16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1710,37 +1701,37 @@
         <v>35</v>
       </c>
       <c r="F17">
-        <v>0.985803497303502</v>
+        <v>0.95191033870329</v>
       </c>
       <c r="G17">
-        <v>0.0254237288135593</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H17">
-        <v>0.8389830508474579</v>
+        <v>0.822033898305085</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.0975</v>
+        <v>0.081</v>
       </c>
       <c r="K17">
-        <v>-0.0057850464694879</v>
+        <v>-0.0039869340839784</v>
       </c>
       <c r="L17">
-        <v>-0.0116538435183205</v>
+        <v>-0.0083797233321326</v>
       </c>
       <c r="M17">
-        <v>-0.0014160636783716</v>
+        <v>-0.0002808442275033</v>
       </c>
       <c r="N17">
-        <v>-5.93338099434663</v>
+        <v>-4.9221408444178</v>
       </c>
       <c r="O17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q17">
         <v>1803578.705</v>
@@ -1749,19 +1740,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U17" t="s">
+        <v>52</v>
+      </c>
+      <c r="V17" t="s">
+        <v>53</v>
+      </c>
+      <c r="W17" t="s">
         <v>55</v>
-      </c>
-      <c r="V17" t="s">
-        <v>56</v>
-      </c>
-      <c r="W17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1781,37 +1772,37 @@
         <v>35</v>
       </c>
       <c r="F18">
-        <v>0.99967105597369</v>
+        <v>0.999998093218286</v>
       </c>
       <c r="G18">
-        <v>0.0254237288135593</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H18">
-        <v>0.932203389830508</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.685</v>
+        <v>1.63425</v>
       </c>
       <c r="K18">
-        <v>-0.0914656993723978</v>
+        <v>-0.148858247066313</v>
       </c>
       <c r="L18">
-        <v>-0.142331433120011</v>
+        <v>-0.213428975862112</v>
       </c>
       <c r="M18">
-        <v>-0.0563317999345617</v>
+        <v>-0.0921124197787266</v>
       </c>
       <c r="N18">
-        <v>-5.42823141675952</v>
+        <v>-9.108658226483859</v>
       </c>
       <c r="O18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q18">
         <v>1803578.705</v>
@@ -1820,19 +1811,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U18" t="s">
+        <v>52</v>
+      </c>
+      <c r="V18" t="s">
+        <v>53</v>
+      </c>
+      <c r="W18" t="s">
         <v>55</v>
-      </c>
-      <c r="V18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W18" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1852,13 +1843,13 @@
         <v>35</v>
       </c>
       <c r="F19">
-        <v>0.801873992863768</v>
+        <v>0.641761777651455</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.6</v>
+        <v>0.601769911504425</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1867,23 +1858,23 @@
         <v>7.67</v>
       </c>
       <c r="K19">
-        <v>0.0058567496935637</v>
+        <v>0.00332347588717</v>
       </c>
       <c r="L19">
-        <v>-0.0066614722957349</v>
+        <v>-0.0086571277156574</v>
       </c>
       <c r="M19">
-        <v>0.0199777765126848</v>
+        <v>0.0190141421202352</v>
       </c>
       <c r="N19">
-        <v>0.0763591876605438</v>
+        <v>0.0433308459865722</v>
       </c>
       <c r="O19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" t="s">
         <v>38</v>
       </c>
-      <c r="P19" t="s">
-        <v>39</v>
-      </c>
       <c r="Q19">
         <v>1803578.705</v>
       </c>
@@ -1891,16 +1882,16 @@
         <v>5557699.998</v>
       </c>
       <c r="S19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1920,37 +1911,37 @@
         <v>35</v>
       </c>
       <c r="F20">
-        <v>0.999729277352481</v>
+        <v>0.99552988476994</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.966101694915254</v>
+        <v>0.957627118644068</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="K20">
-        <v>-0.208398740410533</v>
+        <v>-0.147692115384615</v>
       </c>
       <c r="L20">
-        <v>-0.373642816151495</v>
+        <v>-0.269028843137691</v>
       </c>
       <c r="M20">
-        <v>-0.110921688027845</v>
+        <v>-0.0405812677160283</v>
       </c>
       <c r="N20">
-        <v>-7.44281215751903</v>
+        <v>-5.35116360089186</v>
       </c>
       <c r="O20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q20">
         <v>1803578.705</v>
@@ -1959,19 +1950,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T20" t="s">
+        <v>51</v>
+      </c>
+      <c r="U20" t="s">
+        <v>52</v>
+      </c>
+      <c r="V20" t="s">
+        <v>53</v>
+      </c>
+      <c r="W20" t="s">
         <v>54</v>
-      </c>
-      <c r="U20" t="s">
-        <v>55</v>
-      </c>
-      <c r="V20" t="s">
-        <v>56</v>
-      </c>
-      <c r="W20" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1991,37 +1982,37 @@
         <v>35</v>
       </c>
       <c r="F21">
-        <v>0.997220978335134</v>
+        <v>0.946393853780515</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.932203389830508</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.0365</v>
+        <v>6.1115</v>
       </c>
       <c r="K21">
-        <v>-0.293741014133998</v>
+        <v>-0.131801043328233</v>
       </c>
       <c r="L21">
-        <v>-0.526065133871918</v>
+        <v>-0.311991427312355</v>
       </c>
       <c r="M21">
-        <v>-0.118689278788505</v>
+        <v>-0.0031227449305928</v>
       </c>
       <c r="N21">
-        <v>-4.86608157266624</v>
+        <v>-2.15660710673703</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q21">
         <v>1803578.705</v>
@@ -2030,19 +2021,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T21" t="s">
+        <v>51</v>
+      </c>
+      <c r="U21" t="s">
+        <v>52</v>
+      </c>
+      <c r="V21" t="s">
+        <v>53</v>
+      </c>
+      <c r="W21" t="s">
         <v>54</v>
-      </c>
-      <c r="U21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V21" t="s">
-        <v>56</v>
-      </c>
-      <c r="W21" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2062,37 +2053,37 @@
         <v>35</v>
       </c>
       <c r="F22">
-        <v>0.728197267985387</v>
+        <v>0.447477539480191</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.957627118644068</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.34</v>
+        <v>1.4555</v>
       </c>
       <c r="K22">
-        <v>-0.0150879070777247</v>
+        <v>0.0012982414047504</v>
       </c>
       <c r="L22">
-        <v>-0.0571091510654484</v>
+        <v>-0.0278867874854147</v>
       </c>
       <c r="M22">
-        <v>0.0139372347608956</v>
+        <v>0.0298880168553608</v>
       </c>
       <c r="N22">
-        <v>-1.12596321475558</v>
+        <v>0.08919556198904099</v>
       </c>
       <c r="O22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q22">
         <v>1803578.705</v>
@@ -2101,19 +2092,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T22" t="s">
+        <v>51</v>
+      </c>
+      <c r="U22" t="s">
+        <v>52</v>
+      </c>
+      <c r="V22" t="s">
+        <v>53</v>
+      </c>
+      <c r="W22" t="s">
         <v>54</v>
-      </c>
-      <c r="U22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V22" t="s">
-        <v>56</v>
-      </c>
-      <c r="W22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2133,37 +2124,37 @@
         <v>35</v>
       </c>
       <c r="F23">
-        <v>0.107275692963324</v>
+        <v>0.139470168708544</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.966101694915254</v>
+        <v>0.957627118644068</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.31</v>
+        <v>10.22</v>
       </c>
       <c r="K23">
-        <v>0.266642579513303</v>
+        <v>0.244564143629283</v>
       </c>
       <c r="L23">
-        <v>-0.0581610214594526</v>
+        <v>-0.0679951147307576</v>
       </c>
       <c r="M23">
-        <v>0.676818137111698</v>
+        <v>0.666573335279522</v>
       </c>
       <c r="N23">
-        <v>2.86404489273151</v>
+        <v>2.3929955345331</v>
       </c>
       <c r="O23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q23">
         <v>1803578.705</v>
@@ -2172,19 +2163,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="W23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2204,37 +2195,37 @@
         <v>35</v>
       </c>
       <c r="F24">
-        <v>0.663828184327681</v>
+        <v>0.778100756258701</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.913294797687861</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.32</v>
+        <v>9.17</v>
       </c>
       <c r="K24">
-        <v>0.0224692412850307</v>
+        <v>0.0308456489883403</v>
       </c>
       <c r="L24">
-        <v>-0.0450363491188887</v>
+        <v>-0.0380863166648888</v>
       </c>
       <c r="M24">
-        <v>0.109895951637052</v>
+        <v>0.110847657343234</v>
       </c>
       <c r="N24">
-        <v>0.241086279882304</v>
+        <v>0.336375670538063</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q24">
         <v>1803578.705</v>
@@ -2243,19 +2234,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T24" t="s">
+        <v>51</v>
+      </c>
+      <c r="U24" t="s">
+        <v>52</v>
+      </c>
+      <c r="V24" t="s">
+        <v>53</v>
+      </c>
+      <c r="W24" t="s">
         <v>54</v>
-      </c>
-      <c r="U24" t="s">
-        <v>55</v>
-      </c>
-      <c r="V24" t="s">
-        <v>56</v>
-      </c>
-      <c r="W24" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2275,37 +2266,37 @@
         <v>35</v>
       </c>
       <c r="F25">
-        <v>8.273356853385019E-06</v>
+        <v>0.0016680299886555</v>
       </c>
       <c r="G25">
         <v>0.0056818181818181</v>
       </c>
       <c r="H25">
-        <v>0.9034090909090911</v>
+        <v>0.920454545454545</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.518</v>
+        <v>0.6465</v>
       </c>
       <c r="K25">
-        <v>0.0261252213695396</v>
+        <v>0.0206118091040598</v>
       </c>
       <c r="L25">
-        <v>0.0156980463462889</v>
+        <v>0.0087293408788681</v>
       </c>
       <c r="M25">
-        <v>0.0410988700584324</v>
+        <v>0.0347333207932237</v>
       </c>
       <c r="N25">
-        <v>5.04347902886864</v>
+        <v>3.1882148652838</v>
       </c>
       <c r="O25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q25">
         <v>1803578.705</v>
@@ -2314,19 +2305,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U25" t="s">
+        <v>52</v>
+      </c>
+      <c r="V25" t="s">
+        <v>53</v>
+      </c>
+      <c r="W25" t="s">
         <v>55</v>
-      </c>
-      <c r="V25" t="s">
-        <v>56</v>
-      </c>
-      <c r="W25" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2346,37 +2337,37 @@
         <v>35</v>
       </c>
       <c r="F26">
-        <v>0.96851857182023</v>
+        <v>0.95228491177199</v>
       </c>
       <c r="G26">
         <v>0.0227272727272727</v>
       </c>
       <c r="H26">
-        <v>0.75</v>
+        <v>0.761363636363636</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26">
-        <v>679.5</v>
+        <v>657.3</v>
       </c>
       <c r="K26">
-        <v>-16.4678871806943</v>
+        <v>-14.7820714044863</v>
       </c>
       <c r="L26">
-        <v>-35.8325057633537</v>
+        <v>-33.7369292323711</v>
       </c>
       <c r="M26">
-        <v>-1.524313033511</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>-2.42353012225081</v>
+        <v>-2.24890786619295</v>
       </c>
       <c r="O26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q26">
         <v>1803578.705</v>
@@ -2385,19 +2376,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V26" t="s">
+        <v>53</v>
+      </c>
+      <c r="W26" t="s">
         <v>56</v>
-      </c>
-      <c r="W26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2417,37 +2408,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.0315273589949336</v>
+        <v>0.233714338491384</v>
       </c>
       <c r="G27">
-        <v>0.210843373493976</v>
+        <v>0.176829268292683</v>
       </c>
       <c r="H27">
-        <v>0.795180722891566</v>
+        <v>0.829268292682927</v>
       </c>
       <c r="I27">
         <v>2</v>
       </c>
       <c r="J27">
-        <v>0.331645313958933</v>
+        <v>0.397523568853415</v>
       </c>
       <c r="K27">
-        <v>0.0019751857584925</v>
+        <v>2.18577297059017E-05</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-0.0009087711849628</v>
       </c>
       <c r="M27">
-        <v>0.0129621904221643</v>
+        <v>0.0074023735405901</v>
       </c>
       <c r="N27">
-        <v>0.595571737442695</v>
+        <v>0.0054984739065777</v>
       </c>
       <c r="O27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q27">
         <v>1803578.705</v>
@@ -2456,19 +2447,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U27" t="s">
+        <v>52</v>
+      </c>
+      <c r="V27" t="s">
+        <v>53</v>
+      </c>
+      <c r="W27" t="s">
         <v>55</v>
-      </c>
-      <c r="V27" t="s">
-        <v>56</v>
-      </c>
-      <c r="W27" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2488,37 +2479,37 @@
         <v>35</v>
       </c>
       <c r="F28">
-        <v>0.0301134297494618</v>
+        <v>0.0945602516005167</v>
       </c>
       <c r="G28">
-        <v>0.0602409638554217</v>
+        <v>0.0625</v>
       </c>
       <c r="H28">
-        <v>0.72289156626506</v>
+        <v>0.7159090909090911</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28">
-        <v>0.073</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="K28">
-        <v>0.0021706285714285</v>
+        <v>0.0013386846123573</v>
       </c>
       <c r="L28">
-        <v>0.0003096763097549</v>
+        <v>-0.0002206977978979</v>
       </c>
       <c r="M28">
-        <v>0.0038883468152079</v>
+        <v>0.0031827345190978</v>
       </c>
       <c r="N28">
-        <v>2.97346379647749</v>
+        <v>1.85928418382964</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q28">
         <v>1803578.705</v>
@@ -2527,19 +2518,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U28" t="s">
+        <v>52</v>
+      </c>
+      <c r="V28" t="s">
+        <v>53</v>
+      </c>
+      <c r="W28" t="s">
         <v>55</v>
-      </c>
-      <c r="V28" t="s">
-        <v>56</v>
-      </c>
-      <c r="W28" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2559,37 +2550,37 @@
         <v>35</v>
       </c>
       <c r="F29">
-        <v>0.6676457599793439</v>
+        <v>0.842018174547269</v>
       </c>
       <c r="G29">
-        <v>0.036144578313253</v>
+        <v>0.0340909090909091</v>
       </c>
       <c r="H29">
-        <v>0.909638554216867</v>
+        <v>0.897727272727273</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29">
-        <v>1.675</v>
+        <v>1.59</v>
       </c>
       <c r="K29">
-        <v>-0.0100343406593407</v>
+        <v>-0.0195811916332319</v>
       </c>
       <c r="L29">
-        <v>-0.0410154917744429</v>
+        <v>-0.0525138955582419</v>
       </c>
       <c r="M29">
-        <v>0.0228242548526407</v>
+        <v>0.0109126698182976</v>
       </c>
       <c r="N29">
-        <v>-0.599065113990487</v>
+        <v>-1.23152148636678</v>
       </c>
       <c r="O29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q29">
         <v>1803578.705</v>
@@ -2598,19 +2589,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U29" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" t="s">
+        <v>53</v>
+      </c>
+      <c r="W29" t="s">
         <v>55</v>
-      </c>
-      <c r="V29" t="s">
-        <v>56</v>
-      </c>
-      <c r="W29" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2624,43 +2615,43 @@
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>35</v>
       </c>
       <c r="F30">
-        <v>0.999035352353998</v>
+        <v>0.917555922360797</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.555555555555556</v>
+        <v>0.550295857988166</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>7.62</v>
+        <v>7.65</v>
       </c>
       <c r="K30">
-        <v>0.0214065934065934</v>
+        <v>0.008668146109335599</v>
       </c>
       <c r="L30">
-        <v>0.0099366446101755</v>
+        <v>-0.0017755702424423</v>
       </c>
       <c r="M30">
-        <v>0.0333273040177238</v>
+        <v>0.0199726589200273</v>
       </c>
       <c r="N30">
-        <v>0.280926422658706</v>
+        <v>0.11330909946844</v>
       </c>
       <c r="O30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q30">
         <v>1803578.705</v>
@@ -2669,16 +2660,16 @@
         <v>5557699.998</v>
       </c>
       <c r="S30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2698,37 +2689,37 @@
         <v>35</v>
       </c>
       <c r="F31">
-        <v>0.435588885069195</v>
+        <v>0.74646044904984</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.9715909090909089</v>
+        <v>0.9659090909090911</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2.7175</v>
+        <v>2.8</v>
       </c>
       <c r="K31">
-        <v>0.0065006382039555</v>
+        <v>-0.0184350221409318</v>
       </c>
       <c r="L31">
-        <v>-0.0609616162836379</v>
+        <v>-0.096019875455438</v>
       </c>
       <c r="M31">
-        <v>0.0667150256115579</v>
+        <v>0.0369616904164298</v>
       </c>
       <c r="N31">
-        <v>0.239213917348869</v>
+        <v>-0.658393647890423</v>
       </c>
       <c r="O31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q31">
         <v>1803578.705</v>
@@ -2737,19 +2728,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T31" t="s">
+        <v>51</v>
+      </c>
+      <c r="U31" t="s">
+        <v>52</v>
+      </c>
+      <c r="V31" t="s">
+        <v>53</v>
+      </c>
+      <c r="W31" t="s">
         <v>54</v>
-      </c>
-      <c r="U31" t="s">
-        <v>55</v>
-      </c>
-      <c r="V31" t="s">
-        <v>56</v>
-      </c>
-      <c r="W31" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2769,37 +2760,37 @@
         <v>35</v>
       </c>
       <c r="F32">
-        <v>0.267881180616818</v>
+        <v>0.717334166808248</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.926136363636364</v>
+        <v>0.920454545454545</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>5.6855</v>
+        <v>6.0365</v>
       </c>
       <c r="K32">
-        <v>0.0349479556214308</v>
+        <v>-0.040288768446825</v>
       </c>
       <c r="L32">
-        <v>-0.0581348695244319</v>
+        <v>-0.146362831972924</v>
       </c>
       <c r="M32">
-        <v>0.123095429540053</v>
+        <v>0.066812312429818</v>
       </c>
       <c r="N32">
-        <v>0.614685702601895</v>
+        <v>-0.667419339796653</v>
       </c>
       <c r="O32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P32" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Q32">
         <v>1803578.705</v>
@@ -2808,19 +2799,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T32" t="s">
+        <v>51</v>
+      </c>
+      <c r="U32" t="s">
+        <v>52</v>
+      </c>
+      <c r="V32" t="s">
+        <v>53</v>
+      </c>
+      <c r="W32" t="s">
         <v>54</v>
-      </c>
-      <c r="U32" t="s">
-        <v>55</v>
-      </c>
-      <c r="V32" t="s">
-        <v>56</v>
-      </c>
-      <c r="W32" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2840,7 +2831,7 @@
         <v>35</v>
       </c>
       <c r="F33">
-        <v>8.02039084566273E-05</v>
+        <v>0.005607781440109</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2852,25 +2843,25 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.7685</v>
+        <v>0.9695</v>
       </c>
       <c r="K33">
-        <v>0.0341873885761201</v>
+        <v>0.0240977713163044</v>
       </c>
       <c r="L33">
-        <v>0.0182249172545676</v>
+        <v>0.0075087083928706</v>
       </c>
       <c r="M33">
-        <v>0.0574667520965766</v>
+        <v>0.0439930455986703</v>
       </c>
       <c r="N33">
-        <v>4.44858667223424</v>
+        <v>2.48558755196539</v>
       </c>
       <c r="O33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q33">
         <v>1803578.705</v>
@@ -2879,19 +2870,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T33" t="s">
+        <v>51</v>
+      </c>
+      <c r="U33" t="s">
+        <v>52</v>
+      </c>
+      <c r="V33" t="s">
+        <v>53</v>
+      </c>
+      <c r="W33" t="s">
         <v>54</v>
-      </c>
-      <c r="U33" t="s">
-        <v>55</v>
-      </c>
-      <c r="V33" t="s">
-        <v>56</v>
-      </c>
-      <c r="W33" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2911,7 +2902,7 @@
         <v>35</v>
       </c>
       <c r="F34">
-        <v>0.0590465150219704</v>
+        <v>0.09470465840619841</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2923,25 +2914,25 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>9.140000000000001</v>
+        <v>9.615</v>
       </c>
       <c r="K34">
-        <v>0.216767487320372</v>
+        <v>0.200411899744091</v>
       </c>
       <c r="L34">
-        <v>-0.0173229682442025</v>
+        <v>-0.0484847539022474</v>
       </c>
       <c r="M34">
-        <v>0.469126653969178</v>
+        <v>0.432392759257675</v>
       </c>
       <c r="N34">
-        <v>2.37163552866928</v>
+        <v>2.08436713202383</v>
       </c>
       <c r="O34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q34">
         <v>1803578.705</v>
@@ -2950,19 +2941,19 @@
         <v>5557699.998</v>
       </c>
       <c r="S34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="W34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
